--- a/Database/Schedule (Up).xlsx
+++ b/Database/Schedule (Up).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
   <si>
     <t>Понеділок</t>
   </si>
@@ -43,18 +43,6 @@
   </si>
   <si>
     <t>№</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>4.</t>
   </si>
   <si>
     <t>5.</t>
@@ -153,7 +141,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -441,7 +429,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,41 +479,41 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="O2" s="1"/>
     </row>
@@ -534,324 +522,222 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="L2:M10"/>
-    <mergeCell ref="N2:O10"/>
+  <mergeCells count="7">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
